--- a/黑色/铁矿/eta/铁矿期货价格拟合残差_月度数据.xlsx
+++ b/黑色/铁矿/eta/铁矿期货价格拟合残差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-55.6831</v>
+        <v>-52.8157</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>-73.85680000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-35.2707</v>
+        <v>-29.3906</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-61.6134</v>
       </c>
       <c r="C4" t="n">
-        <v>-62.4811</v>
+        <v>-60.8884</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-76.0408</v>
       </c>
       <c r="C5" t="n">
-        <v>-76.05329999999999</v>
+        <v>-76.05629999999999</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>-70.2667</v>
       </c>
       <c r="C6" t="n">
-        <v>-70.25539999999999</v>
+        <v>-70.2509</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>-147.3839</v>
       </c>
       <c r="C7" t="n">
-        <v>-147.3861</v>
+        <v>-147.3776</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>-162.1982</v>
       </c>
       <c r="C8" t="n">
-        <v>-162.1996</v>
+        <v>-162.2014</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>-146.1614</v>
       </c>
       <c r="C9" t="n">
-        <v>-146.153</v>
+        <v>-146.154</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-80.1589</v>
       </c>
       <c r="C10" t="n">
-        <v>-80.15940000000001</v>
+        <v>-80.1519</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>-30.3151</v>
       </c>
       <c r="C11" t="n">
-        <v>-30.3299</v>
+        <v>-30.3341</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>-77.99639999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-77.9907</v>
+        <v>-78.00060000000001</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>-78.98779999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-78.9923</v>
+        <v>-78.9799</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>-78.52979999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-78.5279</v>
+        <v>-78.5346</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>-29.1188</v>
       </c>
       <c r="C15" t="n">
-        <v>-29.1155</v>
+        <v>-29.1136</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>-50.8619</v>
       </c>
       <c r="C16" t="n">
-        <v>-50.8465</v>
+        <v>-50.8619</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>-94.98480000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>-94.9961</v>
+        <v>-94.9991</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>-46.1828</v>
       </c>
       <c r="C18" t="n">
-        <v>-46.195</v>
+        <v>-46.1783</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>-1.7995</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.7776</v>
+        <v>-1.7846</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>62.7787</v>
       </c>
       <c r="C20" t="n">
-        <v>62.7756</v>
+        <v>62.7789</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>56.7008</v>
       </c>
       <c r="C21" t="n">
-        <v>56.6958</v>
+        <v>56.6976</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>17.7418</v>
       </c>
       <c r="C22" t="n">
-        <v>17.74</v>
+        <v>17.7444</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>58.058</v>
       </c>
       <c r="C23" t="n">
-        <v>58.0488</v>
+        <v>58.0395</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>113.8704</v>
       </c>
       <c r="C24" t="n">
-        <v>113.8406</v>
+        <v>113.8637</v>
       </c>
     </row>
     <row r="25">
